--- a/forms/psa_bag_dry_wt/psa_bag_dry_wt.xlsx
+++ b/forms/psa_bag_dry_wt/psa_bag_dry_wt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\psa_decomp_bag_dry_wt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\psa_bag_dry_wt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,42 +810,42 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
